--- a/inst/extdata/baseline.xlsx
+++ b/inst/extdata/baseline.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Institution</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Publish</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Write</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
@@ -399,7 +409,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -411,10 +421,16 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -422,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -431,13 +447,19 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -448,19 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -468,22 +496,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -491,21 +525,27 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
@@ -514,22 +554,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -537,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -546,13 +592,19 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -560,22 +612,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -583,22 +641,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -609,19 +673,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -632,19 +702,25 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -655,19 +731,25 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -675,21 +757,27 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
     </row>
@@ -698,22 +786,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -721,22 +815,28 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -744,22 +844,28 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -770,19 +876,25 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -793,19 +905,25 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -813,22 +931,28 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -836,21 +960,27 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>2</v>
       </c>
     </row>
